--- a/Data Engineering/CA1/DENG data.xlsx
+++ b/Data Engineering/CA1/DENG data.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DENG WOOO\CA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AE9350-9561-4101-9D09-C3177F5E90D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD41F2-BCEB-4C36-9F04-597590C486CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CBB058DF-9E4A-40B1-A8DA-51AAC5A302F8}"/>
+    <workbookView xWindow="4992" yWindow="2940" windowWidth="17280" windowHeight="9420" xr2:uid="{CBB058DF-9E4A-40B1-A8DA-51AAC5A302F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
     <sheet name="Customers" sheetId="2" r:id="rId2"/>
     <sheet name="Items" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="Inventory" sheetId="4" r:id="rId5"/>
+    <sheet name="Store" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>Emp_ID</t>
   </si>
@@ -54,9 +53,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>StoreRef_ID</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -90,9 +86,6 @@
     <t>CustName</t>
   </si>
   <si>
-    <t>Date_Joined</t>
-  </si>
-  <si>
     <t>Item_ID</t>
   </si>
   <si>
@@ -399,7 +392,40 @@
     <t>Dragonthing@aol.com</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>StoreID</t>
+  </si>
+  <si>
+    <t>StoreAddress</t>
+  </si>
+  <si>
+    <t>Manager_ID</t>
+  </si>
+  <si>
+    <t>13636 Fir St</t>
+  </si>
+  <si>
+    <t>820 Birch Rd</t>
+  </si>
+  <si>
+    <t>940 Green St</t>
+  </si>
+  <si>
+    <t>14496 Maple Way</t>
+  </si>
+  <si>
+    <t>710 Edison Dr</t>
+  </si>
+  <si>
+    <t>341 Main St</t>
+  </si>
+  <si>
+    <t>22566 Elm St</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Date Last Trans</t>
   </si>
 </sst>
 </file>
@@ -456,12 +482,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -780,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C68E9C9-1D46-4F81-A456-F39731A890F5}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -811,34 +838,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -846,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>654269856</v>
@@ -858,7 +885,7 @@
         <v>854</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -870,10 +897,10 @@
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L2" s="4">
         <v>31142</v>
@@ -890,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>758965897</v>
@@ -902,7 +929,7 @@
         <v>247</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -914,16 +941,16 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L3" s="4">
         <v>33140</v>
       </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="1">
         <v>52000</v>
@@ -934,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>625458569</v>
@@ -946,22 +973,22 @@
         <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L4" s="4">
         <v>25223</v>
@@ -978,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>254125478</v>
@@ -990,28 +1017,28 @@
         <v>778</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L5" s="4">
         <v>32999</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1">
         <v>12.25</v>
@@ -1022,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>563258965</v>
@@ -1034,28 +1061,28 @@
         <v>989</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="4">
         <v>35831</v>
       </c>
       <c r="M6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1">
         <v>8.25</v>
@@ -1066,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>111111112</v>
@@ -1078,28 +1105,28 @@
         <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7">
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7" s="4">
         <v>36680</v>
       </c>
       <c r="M7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N7" s="1">
         <v>16000</v>
@@ -1110,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>111111144</v>
@@ -1122,28 +1149,28 @@
         <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="4">
         <v>38239</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N8" s="1">
         <v>20000</v>
@@ -1154,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>125651452</v>
@@ -1166,22 +1193,22 @@
         <v>696</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L9" s="4">
         <v>33032</v>
@@ -1198,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>145969658</v>
@@ -1210,28 +1237,28 @@
         <v>369</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L10" s="4">
         <v>26459</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N10" s="1">
         <v>15</v>
@@ -1242,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>147589652</v>
@@ -1254,28 +1281,28 @@
         <v>696</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L11" s="4">
         <v>36366</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N11" s="1">
         <v>42000</v>
@@ -1286,7 +1313,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>256985698</v>
@@ -1298,28 +1325,28 @@
         <v>369</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L12" s="4">
         <v>36149</v>
       </c>
       <c r="M12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N12" s="1">
         <v>30</v>
@@ -1330,7 +1357,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>352956587</v>
@@ -1342,28 +1369,28 @@
         <v>369</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L13" s="4">
         <v>32667</v>
       </c>
       <c r="M13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N13" s="1">
         <v>50000</v>
@@ -1374,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>458521658</v>
@@ -1386,28 +1413,28 @@
         <v>674</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L14" s="4">
         <v>25861</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N14" s="1">
         <v>12</v>
@@ -1418,7 +1445,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>256656521</v>
@@ -1430,28 +1457,28 @@
         <v>674</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L15" s="4">
         <v>38507</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N15" s="1">
         <v>9.25</v>
@@ -1462,7 +1489,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>958786548</v>
@@ -1474,28 +1501,28 @@
         <v>354</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" s="4">
         <v>36793</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N16" s="1">
         <v>60000</v>
@@ -1518,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A42B15-477B-40C2-8F74-6BE28743B61E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,193 +1557,227 @@
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>5555555555</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="3">
-        <v>36763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="E2" s="5">
+        <v>38589</v>
+      </c>
+      <c r="F2" s="5">
+        <v>40773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>6619872145</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="3">
-        <v>36534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="E3" s="5">
+        <v>37987</v>
+      </c>
+      <c r="F3" s="5">
+        <v>40589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>4789582145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="3">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="E4" s="5">
+        <v>40678</v>
+      </c>
+      <c r="F4" s="5">
+        <v>40773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>6615552485</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="3">
+        <v>113</v>
+      </c>
+      <c r="E5" s="5">
         <v>36892</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>4589854588</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="3">
-        <v>38477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="E6" s="5">
+        <v>38450</v>
+      </c>
+      <c r="F6" s="5">
+        <v>40658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>4176521425</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="3">
-        <v>40889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40593</v>
+      </c>
+      <c r="F7" s="5">
+        <v>40616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="3">
+        <v>114</v>
+      </c>
+      <c r="E8" s="5">
         <v>39672</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="5">
+        <v>40152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="3">
+        <v>68</v>
+      </c>
+      <c r="E9" s="5">
         <v>37048</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="5">
+        <v>39319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>6619755896</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3">
-        <v>36256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E10" s="5">
+        <v>36164</v>
+      </c>
+      <c r="F10" s="5">
+        <v>40639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>4586895847</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="3">
-        <v>36534</v>
+        <v>69</v>
+      </c>
+      <c r="E11" s="5">
+        <v>37112</v>
+      </c>
+      <c r="F11" s="5">
+        <v>37174</v>
       </c>
     </row>
   </sheetData>
@@ -1731,6 +1792,7 @@
     <hyperlink ref="D6" r:id="rId8" xr:uid="{82F79D6F-59E1-4BB4-AB03-3236F5E807BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1739,7 +1801,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,45 +1812,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
         <v>2.25</v>
@@ -1797,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>224852</v>
@@ -1817,10 +1879,10 @@
         <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>2.99</v>
@@ -1829,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>178965</v>
@@ -1849,10 +1911,10 @@
         <v>1566</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1">
         <v>0.99</v>
@@ -1861,10 +1923,10 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>698547</v>
@@ -1881,10 +1943,10 @@
         <v>2365</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1">
         <v>1.99</v>
@@ -1893,10 +1955,10 @@
         <v>0.5</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>557858</v>
@@ -1913,10 +1975,10 @@
         <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>3.99</v>
@@ -1925,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>123058</v>
@@ -1945,10 +2007,10 @@
         <v>335</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
@@ -1957,10 +2019,10 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>411255</v>
@@ -1977,10 +2039,10 @@
         <v>3521</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
@@ -1989,10 +2051,10 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8">
         <v>254413</v>
@@ -2009,10 +2071,10 @@
         <v>4587</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -2021,10 +2083,10 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9">
         <v>845532</v>
@@ -2041,10 +2103,10 @@
         <v>658</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -2053,10 +2115,10 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <v>596543</v>
@@ -2073,10 +2135,10 @@
         <v>84854</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
         <v>2.5</v>
@@ -2085,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>556487</v>
@@ -2107,140 +2169,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CBAE0C-5ECB-4F78-9648-F914037CC1B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76C8627-58C2-4BE1-9B1D-C287584A8F6F}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
-      <c r="D2">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>354</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>369</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>674</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>696</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>778</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>49</v>
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>854</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>29</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
